--- a/doc/Budget-July20-Aug05.xlsx
+++ b/doc/Budget-July20-Aug05.xlsx
@@ -374,7 +374,7 @@
   <dimension ref="D4:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5"/>
@@ -408,7 +408,7 @@
     </row>
     <row r="7" spans="4:5">
       <c r="D7" s="1">
-        <v>510</v>
+        <v>-510</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -449,7 +449,7 @@
     <row r="15" spans="4:5">
       <c r="D15" s="1">
         <f>SUM(D4:D14)</f>
-        <v>3990</v>
+        <v>2970</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Budget-July20-Aug05.xlsx
+++ b/doc/Budget-July20-Aug05.xlsx
@@ -408,7 +408,7 @@
     </row>
     <row r="7" spans="4:5">
       <c r="D7" s="1">
-        <v>-510</v>
+        <v>-620</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -449,7 +449,7 @@
     <row r="15" spans="4:5">
       <c r="D15" s="1">
         <f>SUM(D4:D14)</f>
-        <v>2970</v>
+        <v>2860</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Budget-July20-Aug05.xlsx
+++ b/doc/Budget-July20-Aug05.xlsx
@@ -374,7 +374,7 @@
   <dimension ref="D4:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5"/>
@@ -392,7 +392,7 @@
     </row>
     <row r="5" spans="4:5">
       <c r="D5" s="1">
-        <v>-200</v>
+        <v>-270</v>
       </c>
       <c r="E5">
         <v>6816</v>
@@ -449,7 +449,7 @@
     <row r="15" spans="4:5">
       <c r="D15" s="1">
         <f>SUM(D4:D14)</f>
-        <v>2860</v>
+        <v>2790</v>
       </c>
     </row>
   </sheetData>
